--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1981.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1981.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.005*"exchange" + 0.004*"foreign" + 0.003*"import" + 0.003*"bank" + 0.003*"may" + 0.003*"currency" + 0.002*"export" + 0.002*"payment" + 0.002*"per" + 0.002*"account"</t>
-  </si>
-  <si>
-    <t>0.005*"import" + 0.004*"foreign" + 0.004*"exchange" + 0.003*"bank" + 0.003*"may" + 0.002*"export" + 0.002*"per" + 0.002*"country" + 0.002*"currency" + 0.002*"payment"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"bank" + 0.002*"foreign" + 0.002*"import" + 0.002*"export" + 0.002*"may" + 0.001*"per" + 0.001*"payment" + 0.001*"currency" + 0.001*"cent"</t>
-  </si>
-  <si>
-    <t>0.017*"import" + 0.016*"exchange" + 0.015*"foreign" + 0.014*"bank" + 0.013*"may" + 0.012*"export" + 0.011*"currency" + 0.010*"per" + 0.009*"account" + 0.008*"payment"</t>
-  </si>
-  <si>
-    <t>0.001*"currency" + 0.001*"foreign" + 0.001*"import" + 0.001*"exchange" + 0.001*"bank" + 0.001*"per" + 0.001*"country" + 0.001*"export" + 0.001*"may" + 0.001*"cent"</t>
+    <t>0.032*"fund" + 0.027*"monetary" + 0.022*"international" + 0.017*"redistribution" + 0.016*"december" + 0.015*"franc" + 0.014*"agreement" + 0.014*"republic" + 0.012*"however" + 0.010*"country"</t>
+  </si>
+  <si>
+    <t>0.047*"exchange" + 0.037*"foreign" + 0.024*"payment" + 0.021*"control" + 0.019*"bank" + 0.017*"export" + 0.016*"proceeds" + 0.013*"u" + 0.013*"invisibles" + 0.013*"abroad"</t>
+  </si>
+  <si>
+    <t>0.051*"per" + 0.041*"cent" + 0.037*"currency" + 0.037*"rate" + 0.025*"bank" + 0.022*"exchange" + 0.019*"dollar" + 0.011*"market" + 0.011*"country" + 0.011*"foreign"</t>
+  </si>
+  <si>
+    <t>0.059*"import" + 0.032*"export" + 0.022*"license" + 0.021*"require" + 0.016*"good" + 0.014*"gold" + 0.012*"year" + 0.011*"approval" + 0.011*"subject" + 0.011*"bank"</t>
+  </si>
+  <si>
+    <t>0.050*"may" + 0.035*"account" + 0.020*"resident" + 0.018*"foreign" + 0.018*"nonresident" + 0.016*"currency" + 0.014*"ing" + 0.012*"ion" + 0.012*"bank" + 0.012*"freely"</t>
   </si>
 </sst>
 </file>
